--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" r:id="rId1"/>
+    <sheet name="Prospects" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="105">
   <si>
     <t>Company</t>
   </si>
@@ -119,22 +120,100 @@
     <t>ch4 9re</t>
   </si>
   <si>
-    <t>simon@example.com</t>
-  </si>
-  <si>
-    <t>www.example.com</t>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Testsw</t>
+  </si>
+  <si>
+    <t>Used Vehicle Sales; New Vehicle Sales</t>
+  </si>
+  <si>
+    <t>01244566797</t>
+  </si>
+  <si>
+    <t>07875456123</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Partnership</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>Used Vehicle Sales</t>
   </si>
   <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>Testsw</t>
+    <t>01244566798</t>
+  </si>
+  <si>
+    <t>07975456123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenny </t>
+  </si>
+  <si>
+    <t>GoodTest</t>
+  </si>
+  <si>
+    <t>Limited Company</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>testIre</t>
+  </si>
+  <si>
+    <t>testire2</t>
+  </si>
+  <si>
+    <t>testire3</t>
+  </si>
+  <si>
+    <t>Limmerick</t>
+  </si>
+  <si>
+    <t>IRE</t>
+  </si>
+  <si>
+    <t>01244566799</t>
+  </si>
+  <si>
+    <t>07175456123</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Franchise Stocking Plan</t>
+  </si>
+  <si>
+    <t>test2_</t>
+  </si>
+  <si>
+    <t>test3_</t>
+  </si>
+  <si>
+    <t>01244566800</t>
+  </si>
+  <si>
+    <t>07838545614</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
   <si>
     <t>Simon Test_co_</t>
@@ -146,94 +225,130 @@
     <t>David Company Test_</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Franchise Stocking Plan</t>
-  </si>
-  <si>
-    <t>Partnership</t>
-  </si>
-  <si>
-    <t>Limited Company</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>testIre</t>
-  </si>
-  <si>
-    <t>testire2</t>
-  </si>
-  <si>
-    <t>test2_</t>
-  </si>
-  <si>
-    <t>testire3</t>
-  </si>
-  <si>
-    <t>test3_</t>
-  </si>
-  <si>
-    <t>Limmerick</t>
-  </si>
-  <si>
-    <t>IRE</t>
-  </si>
-  <si>
-    <t>Used Vehicle Sales; New Vehicle Sales</t>
-  </si>
-  <si>
-    <t>01244566797</t>
-  </si>
-  <si>
-    <t>01244566798</t>
-  </si>
-  <si>
-    <t>01244566799</t>
-  </si>
-  <si>
-    <t>01244566800</t>
-  </si>
-  <si>
-    <t>07875456123</t>
-  </si>
-  <si>
-    <t>07975456123</t>
-  </si>
-  <si>
-    <t>07175456123</t>
-  </si>
-  <si>
-    <t>07838545614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenny </t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>GoodTest</t>
+    <t>simon@example1.com</t>
+  </si>
+  <si>
+    <t>simon@example2.com</t>
+  </si>
+  <si>
+    <t>simon@example3.com</t>
+  </si>
+  <si>
+    <t>simon@example4.com</t>
+  </si>
+  <si>
+    <t>www.example1.com</t>
+  </si>
+  <si>
+    <t>www.example2.com</t>
+  </si>
+  <si>
+    <t>www.example3.com</t>
+  </si>
+  <si>
+    <t>www.example4.com</t>
+  </si>
+  <si>
+    <t>Dealership Type</t>
+  </si>
+  <si>
+    <t>Trading for 12 months</t>
+  </si>
+  <si>
+    <t>VAT registered</t>
+  </si>
+  <si>
+    <t>SourceCountry</t>
+  </si>
+  <si>
+    <t>CompanyStatus</t>
+  </si>
+  <si>
+    <t>Vehicle Types Sold</t>
+  </si>
+  <si>
+    <t>Cars; Commercials</t>
+  </si>
+  <si>
+    <t>Simon Test Company</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>AvgNumberOfVehicles</t>
+  </si>
+  <si>
+    <t>31-59</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>DataSource</t>
+  </si>
+  <si>
+    <t>AE generated</t>
+  </si>
+  <si>
+    <t>07876541214</t>
+  </si>
+  <si>
+    <t>01244456456</t>
+  </si>
+  <si>
+    <t>Kris Test Company</t>
+  </si>
+  <si>
+    <t>David Test Company</t>
+  </si>
+  <si>
+    <t>Franchise</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>60-99</t>
+  </si>
+  <si>
+    <t>11-30</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>AE generated; Aston Barclay</t>
+  </si>
+  <si>
+    <t>01244564789</t>
+  </si>
+  <si>
+    <t>01244567979</t>
+  </si>
+  <si>
+    <t>07845642132</t>
+  </si>
+  <si>
+    <t>07985244123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,10 +378,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,13 +699,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -665,7 +782,7 @@
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>80000</v>
       </c>
       <c r="D2" t="s">
@@ -696,51 +813,51 @@
         <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>90000</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -758,119 +875,119 @@
         <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>100000</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2">
-        <v>360000</v>
+        <v>56</v>
+      </c>
+      <c r="C5" s="3">
+        <v>120000</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
         <v>28</v>
@@ -882,32 +999,240 @@
         <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="S5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="T5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H3" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
   <si>
     <t>Company</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Cars; Commercials</t>
   </si>
   <si>
-    <t>Simon Test Company</t>
-  </si>
-  <si>
     <t>Independent</t>
   </si>
   <si>
@@ -301,12 +298,6 @@
   </si>
   <si>
     <t>01244456456</t>
-  </si>
-  <si>
-    <t>Kris Test Company</t>
-  </si>
-  <si>
-    <t>David Test Company</t>
   </si>
   <si>
     <t>Franchise</t>
@@ -699,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1033,7 +1024,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1075,7 +1068,7 @@
         <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
         <v>17</v>
@@ -1087,27 +1080,27 @@
         <v>19</v>
       </c>
       <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>87</v>
-      </c>
-      <c r="N1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -1119,7 +1112,7 @@
         <v>80</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -1131,27 +1124,27 @@
         <v>54</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -1160,10 +1153,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -1175,27 +1168,27 @@
         <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -1207,7 +1200,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -1216,16 +1209,16 @@
         <v>54</v>
       </c>
       <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
